--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>01</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -449,7 +449,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01</v>
+        <v>012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012</v>
+        <v>0120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0120</v>
+        <v>0121</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,12 +457,17 @@
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>17_烟灰紫洋桔梗_Grey Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121</v>
+        <v>012130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -464,6 +464,9 @@
       <c r="C4" t="str">
         <v>17_烟灰紫洋桔梗_Grey Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -525,7 +528,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012130</v>
+        <v>012131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,12 +465,17 @@
         <v>17_烟灰紫洋桔梗_Grey Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -528,7 +533,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131</v>
+        <v>01213140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -472,6 +472,9 @@
       <c r="A5" t="str">
         <v>2</v>
       </c>
+      <c r="C5" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -475,6 +475,9 @@
       <c r="C5" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -536,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213140</v>
+        <v>01213141</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,12 +476,17 @@
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -539,7 +544,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213141</v>
+        <v>0121314120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>21_火烈鸟洋桔梗_Flamingo Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -483,6 +483,9 @@
       <c r="C6" t="str">
         <v>21_火烈鸟洋桔梗_Flamingo Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -544,7 +547,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121314120</v>
+        <v>0121314121</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>01</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,12 +449,17 @@
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01</v>
+        <v>0120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0120</v>
+        <v>01213</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213</v>
+        <v>012130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -464,6 +464,9 @@
       <c r="C4" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -525,7 +528,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012130</v>
+        <v>0121313</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,9 +468,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -528,7 +533,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121313</v>
+        <v>01213130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -472,6 +472,9 @@
       <c r="A5" t="str">
         <v>2</v>
       </c>
+      <c r="C5" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -475,6 +475,9 @@
       <c r="C5" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -536,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213130</v>
+        <v>01213131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,12 +476,17 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -539,7 +544,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213131</v>
+        <v>0121313130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -483,6 +483,9 @@
       <c r="C6" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -544,7 +547,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121313130</v>
+        <v>0121313131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>014</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014</v>
+        <v>0140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0140</v>
+        <v>0141</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,12 +457,17 @@
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0141</v>
+        <v>014150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -464,6 +464,9 @@
       <c r="A4" t="str">
         <v>2</v>
       </c>
+      <c r="C4" t="str">
+        <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -467,6 +467,9 @@
       <c r="C4" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -528,7 +531,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014150</v>
+        <v>014151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,12 +468,17 @@
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -531,7 +536,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014151</v>
+        <v>01415130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -475,6 +475,9 @@
       <c r="C5" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -536,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01415130</v>
+        <v>01415132</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -476,7 +476,7 @@
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01415132</v>
+        <v>014151312</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>013</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013</v>
+        <v>0130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0130</v>
+        <v>0131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,12 +457,17 @@
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0131</v>
+        <v>013140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -464,6 +464,9 @@
       <c r="A4" t="str">
         <v>2</v>
       </c>
+      <c r="C4" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -467,6 +467,9 @@
       <c r="C4" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -528,7 +531,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013140</v>
+        <v>0131414</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,9 +471,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>17_烟灰紫洋桔梗_Grey Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -531,7 +536,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0131414</v>
+        <v>01314140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -475,6 +475,9 @@
       <c r="C5" t="str">
         <v>17_烟灰紫洋桔梗_Grey Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -536,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01314140</v>
+        <v>01314141</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -476,7 +476,7 @@
         <v>17_烟灰紫洋桔梗_Grey Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01314141</v>
+        <v>013141416</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,10 +449,21 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F2" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -509,8 +520,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>0130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,10 +460,18 @@
       <c r="C3" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -521,7 +529,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0130</v>
+        <v>013140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -468,6 +468,9 @@
       <c r="A4" t="str">
         <v>2</v>
       </c>
+      <c r="C4" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +471,18 @@
       <c r="C4" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>20_波浪绿洋桔梗_Wavy Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -532,7 +540,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013140</v>
+        <v>01314130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -479,6 +479,9 @@
       <c r="C5" t="str">
         <v>20_波浪绿洋桔梗_Wavy Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -540,7 +543,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01314130</v>
+        <v>013141314</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-27.xlsx
+++ b/DateBase/orders/name001_2024-9-27.xlsx
@@ -33,11 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -402,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,9 +479,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F6" t="str">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -543,7 +547,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013141314</v>
+        <v>01314131414</v>
       </c>
     </row>
   </sheetData>
